--- a/Ageipelago Attila the Hun.xlsx
+++ b/Ageipelago Attila the Hun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/BB6DD295C338E39F/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91ACB84B-2206-46F0-9D67-4BF5737F0815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{91ACB84B-2206-46F0-9D67-4BF5737F0815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E90EAA4E-F9F5-4388-8F14-B319753488BF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B80992DC-780F-4856-A6B0-D26FA95FCBC0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B80992DC-780F-4856-A6B0-D26FA95FCBC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Scenario</t>
   </si>
@@ -81,267 +81,7 @@
     <t>The Fall of Rome</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Kill </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bleda the Hun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defeat 2 of your Enemies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3 Villagers,
-1 Town Center (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bleda's Huns</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)
-4 Villagers (Western Camp)
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kill the Iron Boar
-Defeat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Scythians</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defeat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Persians</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defeat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Eastern Roman Empire</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Rescue </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>the Scthian Scout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Bring 10 Horses to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Scythians</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Reach the Imprisoned Villagers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A goal for every way of killing </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bleda the Hun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> maybe?
-The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Romans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> also have a Castle on hard. Not sure how to best handle that. Maybe add the Castle in on any Difficulty and make it an Objective? Wouldn't make a Difference in Difficulty tbh...</t>
-    </r>
-  </si>
-  <si>
     <t>Attila the Hun</t>
-  </si>
-  <si>
-    <r>
-      <t>11 Tarkans, 1 Scout Cavalry, Hun Commander, 3 Horses (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bleds's Huns</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)
-Misc. Buildings (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bleda's Huns</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)
-Infinite Supply of 18 Mangudai (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Scythians</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)
-400 Food, 500 Wood, 225 Stone
-1000 Food, 1000 Wood, 600 Gold 600 Stone</t>
-    </r>
   </si>
   <si>
     <t>12 Tarkans
@@ -361,31 +101,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">I believe the Resources optained in Vanilla depends on how much the Enemy in Question has stockpiled. The same is true for the Villagers, it's 4 plus whatever Villagers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Thessalonica</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> has left.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Destroy the </t>
     </r>
     <r>
@@ -655,328 +370,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Castle/s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Betray </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bleda the Hun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Survive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bleda the Hun's</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Betrayal
-Confront </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bleda's Huns</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in open Conflict
-Destroy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Castle/s
-Kill </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>the Scythian Scout</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-Build a Castle
-Reach </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>the Wonder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Destroy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>the Wonder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Destroy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1/2/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Dock/s
-Destroy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Phillipopolis'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Market</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Destroy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Constantinople's Northern Dock</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Destroy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Constantinople's Southern Docks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Destroy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Town Center/s
-Destroy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>the Monestary outside Constantinople's Walls</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Kill </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Philippopolis' Trade Cart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Kill </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Constantinople's Trade Cogs</t>
     </r>
   </si>
   <si>
@@ -1213,42 +606,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Trinute 500 Gold to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Burgundy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Build a Castle in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Burgundy</t>
-    </r>
-  </si>
-  <si>
-    <t>Honestly, Burgundy as an Ally is more of a Punisment than anything else…</t>
-  </si>
-  <si>
     <t>3 Villagers
 10 Tarkans
 1 Scout Cavalry
@@ -1351,10 +708,6 @@
       <t xml:space="preserve">
 Win within 30 Minutes</t>
     </r>
-  </si>
-  <si>
-    <t>Not much to say, this is basically just a Deathmatch game.
-Yes there is a Speedrun Achievement. PLEASE do not actually add it as a location, it is among the most difficult Achievements.</t>
   </si>
   <si>
     <t>Attila the Hun
@@ -1576,14 +929,3082 @@
     </r>
   </si>
   <si>
-    <t>Kind of a Speedrun Achievement again. But this one is interesting due to the triggers for the Wonders. Patavium starts building their first Wonder within the first Minute and Mediolanum takes helf an hour to start. But Aquileia starts only when a certain Area around Patavium is entered, while Verona will wait untill the Player either enters Mediolanum OR builds a Dromon, since the Wonder could be destroyed without entering the Area in the first Place. Patavium will then start a SECOND Wonder once the Player enters Verona.</t>
+    <t>Army Player 2</t>
+  </si>
+  <si>
+    <t>Army Player 3</t>
+  </si>
+  <si>
+    <t>Army Player 4</t>
+  </si>
+  <si>
+    <t>Army Player 5</t>
+  </si>
+  <si>
+    <t>Army Player 6</t>
+  </si>
+  <si>
+    <t>Army Player 7</t>
+  </si>
+  <si>
+    <t>Army Player 8</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kill the Iron Boar
+Rescue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>the Scthian Scout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Bring 10 Horses to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scythians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Reach the Imprisoned Villagers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kill </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bleda the Hun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scythians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Persians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eastern Roman Empire</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Killing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bleda the Hun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, betraying him, surviving his Betrayal, reaching the Villagers, freeing the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scythian Scout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and bringing Horses to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scythians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is possible from the Beginning.
+Defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bleda's Huns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in open Combat, destroying Castles and defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scythians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Persians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requires Villagers and Resources.
+Killing the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scythian Scout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and defeating the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eastern Roman Empire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requires Villagers or Troops.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11 Tarkans, 1 Scout Cavalry, Hun Commander, 3 Horses (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bleds's Huns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+Misc. Buildings (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bleda's Huns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+Infinite Supply of 18 Mangudai (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scythians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+400 Food, 500 Wood, 225 Stone
+1000 Food, 1000 Wood, 600 Gold 600 Stone
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scythians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> start as Allies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3 Villagers,
+1 Town Center (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bleda's Huns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+4 Villagers (Western Camp)
+12 Villagers (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Roman Camp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+12 War Galleys
+20 Knights
+12 War Elephants
+4 Mangonels
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8 War Galleys
+14 Knights
+7 War Elephants
+2 Mangonels
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <t>3 Scythian Wild Women
+8 Hunting Wolfes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Betray </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bleda the Hun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Survive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bleda the Hun's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Betrayal
+Defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bleda's Huns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in open Conflict
+Destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Castle/s
+Kill </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>the Scythian Scout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A goal for every way of killing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bleda the Hun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> maybe?
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Romans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> only have a Castle on hard. Could simply add it in on lower Difficulties, or only add the Objective on hard.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I believe the Resources optained in Vanilla depends on how much the Enemy in Question has stockpiled. The same is true for the Villagers, it's 4 plus whatever Villagers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thessalonica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has left.
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Romans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> only have a Castle on moderate/hard. Could simply add it in on lower Difficulties, or only add the Objective on hard.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8 Men-at Arms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3 Monks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2 Monks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+12 Archers
+1 Monk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6 Archers
+1 Monk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+16 Spearmen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6 Archers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 Onager
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5 Spearmen
+6 Archers
+1 Onager
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+16 Pikemen
+6 Archers
+1 Onager</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Destroying Castles and defeating the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Eastern Roman Empire </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2FE2F5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dyrrhachium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requires either Villagers and Wood or the Gaia Troops in the Forest.
+Bringing Villagers to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scythians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requires Villagers.
+Defeating other Enemies and optaining Resources is possible from the Beginning.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Build a Castle
+Reach </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>the Wonder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>the Wonder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Destroy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1/2/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Dock/s
+Destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Phillipopolis'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Market</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Constantinople's Northern Dock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Constantinople's Southern Docks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Town Center/s
+Destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>the Monastery outside Constantinople's Walls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Kill </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Philippopolis' Trade Cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Kill </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Constantinople's Trade Cogs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Troops:
+7 Men-at-Arms
+4 Light Cavalry
+Later:
+20 Long Swordsmen
+10 Light Cavalry
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Easy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Troops:
+Identical to Moderate
+Later:
+10 Long Swordsmen
+10 Light Cavalry
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Troops:
+6 Archers
+Later:
+12 Pikemen
+18 Crossbowmen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Easy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Troops:
+Identical to Moderate
+Later:
+8 Men-at-Arms
+8 Crossbowmen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+6 Spearmen
+5 Crossbowmen
+2 Mangonels
+Later:
+12 Knights
+12 Long Swordsmen
+12 Pikemen
+4 Scorpions
+4 Battering Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+6 Spearmen
+5 Crossbowmen
+0 Mangonels
+Later:
+6 Knights
+6 Men-at-Arms
+6 Pikemen
+4 Battering Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+27 Cavalry Archers
+1 Mangudai
+25 Archers
+Later:
+17 Cavalry Archers
+14 Mangudai
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+Identical to Moderate
+Later:
+12 Cavalry Archers
+8 Mangudai
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+Identical to Moderate
+Later:
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+22 Men-at-Arms
+15 Archers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+12 Men-at-Arms
+6 Archers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To collect the Relics, the Player must have Monasteries unlocked.
+To destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the Trade Cogs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the Player must have Docks and any Warships unlocked.
+To be able to build a Castle, the Player needs to have Castles unlocked</t>
+    </r>
+  </si>
+  <si>
+    <t>10 Fire Ships
+28 Crossbowmen
+13 Cataphracts
+6 Monks
+5 Onagers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tribute 500 Gold to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Burgundy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Build a Castle in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Burgundy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Honestly, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Burgundy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as an Ally is more of a Punisment than anything else…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+20 Long Swordsmen
+15 Crossbowmen
+3 Battering Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+20 Long Swordsmen
+3 Battering Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To collect the Relics, the Player must have Monasteries and Monks unlocked.
+To build a Castle for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Burgundy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the Player needs to have Castles unlocked.
+To tribute </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Burgundy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the Player needs to have Markets unlocked.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+20 Halberdier
+30 Paladins
+3 Monks
+20 Elite Throwing Axemen
+5 Heavy Scorpions
+3 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+10 Halberdier
+7 Paladins
+1 Monk
+10 Elite Throwing Axemen
+3 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+20 Halberdier
+30 Paladins
+6 Monks
+34 Elite Throwing Axemen
+5 Heavy Scorpions
+3 Trebuchets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+10 Champions
+7 Paladins (30 in Imperial Age)
+10 Elite Throwing Axemen
+(25 in Imperial Age)
+3 Capped Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+7 Paladins
+10 Elite Throwing Axemen
+3 Capped Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+31 Elite Centurions
+71 Legionaries
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+15 Elite Centurions
+35 Legionaries
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+63 Elite Centurions
+143 Legionaries</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Scout Cavalry
+1 Battering Ram</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+1 Scout Cavalry
+Later:
+8 Paladins (12 in Imperial Age)
+15 Heavy Cavalry Archers (20 in Imperial Age)
+4 Mangonels
+3 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:Identical to Moderate
+Later:
+6 Paladins (10 in Imperial Age)
+10 Heavy Cavalry Archers (15 in Imperial Age)
+2 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:Identical to Moderate
+Later:
+8 Paladins (15 in Imperial Age)
+15 Heavy Cavalry Archers (25 in Imperial Age)
+4 Mangonels
+3 Trebuchets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+8 Men-at Arms
+4 Knights
+1 Scout Cavalry
+Later:
+20 Champions
+11 Cavalier
+4 Petards
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+Identical to Moderate
+Later:
+25 Champions
+14 Cavalier
+4 Petards
+2 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+Identical to Moderate
+Later:
+15 Champions
+8 Cavalier
+4 Petards</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+7 Long Swordsmen
+5 Knights
+1 Light Cavalry
+Later:
+20 Legionaries
+15 Elite Centurions
+4 Scorpions
+4 Petards
+4 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:Identical to Moderate
+Later:
+8 Legionaries
+6 Elite Centurions
+2 Scorpions
+4 Petards
+2 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:Identical to Moderate
+Later:
+30 Legionaries
+22 Elite Centurions
+8 Scorpions
+4 Petards
+4 Trebuchets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+10 Men-at-Arms
+4 Pikemen
+1 Scout Cavalry
+Later:
+20 Champions
+15 Halberdiers
+15 Elite Huskarls
+6 Capped Rams
+4 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:Identical to Moderate
+Later:
+15 Long Swordsmen
+10 Pikemen
+8 Huskarls
+3 Battering Rams
+2 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:Identical to Moderate
+Later:
+30 Champions
+20 Halberdiers
+20 Elite Huskarls
+6 Capped Rams
+5 Trebuchets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kind of a Speedrun Achievement again. But this one is interesting due to the triggers for the Wonders. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Patavium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> starts building their first Wonder within the first Minute and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mediolanum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> takes helf an hour to start. But </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aquileia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> starts only when a certain Area around </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Patavium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is entered, while </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verona</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will wait untill the Player either enters </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mediolanum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OR builds a Dromon, since the Wonder could be destroyed without entering the Area in the first Place. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Patavium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will then start a SECOND Wonder once the Player enters Verona.</t>
+    </r>
+  </si>
+  <si>
+    <t>24 Elite Centurions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To meet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pope Leo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the Player must be able to defeat all Enemies.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+10 Long Swordsmen
+4 Knights
+12 Scorpions
+1 Monk
+Later:
+25 Halberdiers
+16 Hussars
+16 Paladins
+3 Scorpions
+5 Galleons (if the Player builds a Dock)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+Identical to Moderate
+12 Halberdiers
+6 Hussars
+6 Paladins
+3 Scorpions
+5 Galleons (if the Player builds a Dock)
+Later:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+Identical to Moderate
+Later:
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Not much to say, this is basically just a Deathmatch game.
+Yes there is a Speedrun Achievement. PLEASE do not actually add it as a location, it is among the most difficult Achievements.
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Visigoths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seem to struggle with getting to the Imperial Age on Standard.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+10 Champions
+2 Paladins
+Later:
+25 Crossbowmen
+18 Paladins
+3 Siege Onagers
+4 Trebuchets
+5 Fire Ships (if the Player builds a Dock)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+Identical to Moderate
+Later:
+12 Crossbowmen
+6 Paladins
+3 Onagers
+5 Fast Fire Ships (if the Player builds a Dock)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+Identical to Moderate
+Later:Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+11 Hussars
+1 Monk
+Later:
+12 Crossbowmen
+16 Elite Throwing Axemen
+30 Paladins
+4 Monks
+4 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+Identical to Moderate
+Later:
+6 Crossbowmen
+8 Elite Throwing Axemen
+10 Paladins
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+Identical to Moderate
+Later:Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+8 Long Swordsmen
+16 Longbowmen
+2 Trebuchets
+Later:
+18 Champions
+15 Crossbowmen
+15 Longbowmen
+5 Petards
+3 Mangonels
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+Identical to Moderate
+Later:
+8 Champions
+10 Crossbowmen
+8 Longbowmen
+5 Petards
+3 Mangonels
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Units:
+Identical to Moderate
+Later:Identical to Moderate</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1691,6 +4112,55 @@
       <color rgb="FF2FE2F5"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2FE2F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2150,10 +4620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4021AD6D-5731-4FBB-BF2F-CE4CC48789B4}">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="L7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2165,11 +4635,18 @@
     <col min="6" max="6" width="29.7109375" customWidth="1"/>
     <col min="7" max="7" width="32.140625" customWidth="1"/>
     <col min="8" max="8" width="29.140625" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="44.28515625" customWidth="1"/>
+    <col min="10" max="11" width="29.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.85546875" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="24.85546875" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:9" ht="117" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:17" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2194,145 +4671,279 @@
       <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>17</v>
+        <v>52</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>23</v>
+        <v>53</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="11" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>39</v>
+        <v>68</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11" t="s">
-        <v>43</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="2:9" ht="408.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" ht="408.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="11" t="s">
-        <v>47</v>
+        <v>79</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
